--- a/brookbi-backend/src/main/resources/网站数据.xlsx
+++ b/brookbi-backend/src/main/resources/网站数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -63,6 +63,58 @@
         <charset val="134"/>
       </rPr>
       <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -1049,7 +1101,7 @@
   <dimension ref="A1:BY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -1244,8 +1296,12 @@
       <c r="BY4" s="4"/>
     </row>
     <row r="5" spans="1:77">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>30</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1323,8 +1379,12 @@
       <c r="BY5" s="4"/>
     </row>
     <row r="6" spans="1:77">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>35</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1402,8 +1462,12 @@
       <c r="BY6" s="4"/>
     </row>
     <row r="7" spans="1:77">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1481,8 +1545,12 @@
       <c r="BY7" s="4"/>
     </row>
     <row r="8" spans="1:77">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
